--- a/database/industries/chemical/sharum/cost/quarterly.xlsx
+++ b/database/industries/chemical/sharum/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\chemical\sharum\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\chemical\sharum\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B916E33F-4BA3-4966-BA55-20F24E3C7ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="77">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -61,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -256,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +427,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -438,7 +439,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -485,6 +486,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -520,6 +538,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -671,17 +706,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -696,7 +731,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +748,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,7 +765,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -745,7 +780,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -762,7 +797,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -779,7 +814,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -794,7 +829,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -831,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -846,162 +881,162 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>217971</v>
+        <v>519150</v>
       </c>
       <c r="F10" s="9">
-        <v>519150</v>
+        <v>717305</v>
       </c>
       <c r="G10" s="9">
-        <v>717305</v>
+        <v>697889</v>
       </c>
       <c r="H10" s="9">
-        <v>697889</v>
+        <v>1171065</v>
       </c>
       <c r="I10" s="9">
-        <v>1171065</v>
+        <v>787811</v>
       </c>
       <c r="J10" s="9">
-        <v>787811</v>
+        <v>1879511</v>
       </c>
       <c r="K10" s="9">
-        <v>1879511</v>
+        <v>1567871</v>
       </c>
       <c r="L10" s="9">
-        <v>1567871</v>
+        <v>1730799</v>
       </c>
       <c r="M10" s="9">
-        <v>1730799</v>
+        <v>1792257</v>
       </c>
       <c r="N10" s="9">
-        <v>1792257</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2163778</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>18201</v>
+        <v>16133</v>
       </c>
       <c r="F11" s="11">
-        <v>16133</v>
+        <v>33963</v>
       </c>
       <c r="G11" s="11">
-        <v>33963</v>
+        <v>26768</v>
       </c>
       <c r="H11" s="11">
-        <v>26768</v>
+        <v>40478</v>
       </c>
       <c r="I11" s="11">
-        <v>40478</v>
+        <v>39836</v>
       </c>
       <c r="J11" s="11">
-        <v>39836</v>
+        <v>35366</v>
       </c>
       <c r="K11" s="11">
-        <v>35366</v>
+        <v>59182</v>
       </c>
       <c r="L11" s="11">
-        <v>59182</v>
+        <v>47026</v>
       </c>
       <c r="M11" s="11">
-        <v>47026</v>
+        <v>39095</v>
       </c>
       <c r="N11" s="11">
-        <v>39095</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>58986</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>112709</v>
+        <v>160017</v>
       </c>
       <c r="F12" s="9">
-        <v>160017</v>
+        <v>159094</v>
       </c>
       <c r="G12" s="9">
-        <v>159094</v>
+        <v>496867</v>
       </c>
       <c r="H12" s="9">
-        <v>496867</v>
+        <v>-104327</v>
       </c>
       <c r="I12" s="9">
-        <v>-104327</v>
+        <v>345113</v>
       </c>
       <c r="J12" s="9">
-        <v>345113</v>
+        <v>347016</v>
       </c>
       <c r="K12" s="9">
-        <v>347016</v>
+        <v>363932</v>
       </c>
       <c r="L12" s="9">
-        <v>363932</v>
+        <v>346058</v>
       </c>
       <c r="M12" s="9">
-        <v>346058</v>
+        <v>506746</v>
       </c>
       <c r="N12" s="9">
-        <v>506746</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>452446</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>348881</v>
+        <v>695300</v>
       </c>
       <c r="F13" s="13">
-        <v>695300</v>
+        <v>910362</v>
       </c>
       <c r="G13" s="13">
-        <v>910362</v>
+        <v>1221524</v>
       </c>
       <c r="H13" s="13">
-        <v>1221524</v>
+        <v>1107216</v>
       </c>
       <c r="I13" s="13">
-        <v>1107216</v>
+        <v>1172760</v>
       </c>
       <c r="J13" s="13">
-        <v>1172760</v>
+        <v>2261893</v>
       </c>
       <c r="K13" s="13">
-        <v>2261893</v>
+        <v>1990985</v>
       </c>
       <c r="L13" s="13">
-        <v>1990985</v>
+        <v>2123883</v>
       </c>
       <c r="M13" s="13">
-        <v>2123883</v>
+        <v>2338098</v>
       </c>
       <c r="N13" s="13">
-        <v>2338098</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2675210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>18592</v>
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -1016,59 +1051,59 @@
         <v>0</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>-26414</v>
       </c>
       <c r="K14" s="9">
-        <v>-26414</v>
+        <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>-24562</v>
       </c>
       <c r="M14" s="9">
-        <v>-24562</v>
+        <v>24562</v>
       </c>
       <c r="N14" s="9">
-        <v>24562</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-63776</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>367473</v>
+        <v>695300</v>
       </c>
       <c r="F15" s="13">
-        <v>695300</v>
+        <v>910362</v>
       </c>
       <c r="G15" s="13">
-        <v>910362</v>
+        <v>1221524</v>
       </c>
       <c r="H15" s="13">
-        <v>1221524</v>
+        <v>1107216</v>
       </c>
       <c r="I15" s="13">
-        <v>1107216</v>
+        <v>1172760</v>
       </c>
       <c r="J15" s="13">
-        <v>1172760</v>
+        <v>2235479</v>
       </c>
       <c r="K15" s="13">
-        <v>2235479</v>
+        <v>1990985</v>
       </c>
       <c r="L15" s="13">
-        <v>1990985</v>
+        <v>2099321</v>
       </c>
       <c r="M15" s="13">
-        <v>2099321</v>
+        <v>2362660</v>
       </c>
       <c r="N15" s="13">
-        <v>2362660</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2611434</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1142,162 +1177,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>367473</v>
+        <v>695300</v>
       </c>
       <c r="F18" s="15">
-        <v>695300</v>
+        <v>910362</v>
       </c>
       <c r="G18" s="15">
-        <v>910362</v>
+        <v>1221524</v>
       </c>
       <c r="H18" s="15">
-        <v>1221524</v>
+        <v>1107216</v>
       </c>
       <c r="I18" s="15">
-        <v>1107216</v>
+        <v>1172760</v>
       </c>
       <c r="J18" s="15">
-        <v>1172760</v>
+        <v>2235479</v>
       </c>
       <c r="K18" s="15">
-        <v>2235479</v>
+        <v>1990985</v>
       </c>
       <c r="L18" s="15">
-        <v>1990985</v>
+        <v>2099321</v>
       </c>
       <c r="M18" s="15">
-        <v>2099321</v>
+        <v>2362660</v>
       </c>
       <c r="N18" s="15">
-        <v>2362660</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2611434</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>415941</v>
       </c>
       <c r="G19" s="11">
-        <v>415941</v>
+        <v>567216</v>
       </c>
       <c r="H19" s="11">
-        <v>567216</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>1453057</v>
       </c>
       <c r="J19" s="11">
-        <v>1453057</v>
+        <v>1843470</v>
       </c>
       <c r="K19" s="11">
-        <v>1843470</v>
+        <v>1682113</v>
       </c>
       <c r="L19" s="11">
-        <v>1682113</v>
+        <v>2632183</v>
       </c>
       <c r="M19" s="11">
-        <v>2632183</v>
+        <v>2845644</v>
       </c>
       <c r="N19" s="11">
-        <v>2845644</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2259399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-33508</v>
+        <v>-345122</v>
       </c>
       <c r="F20" s="9">
-        <v>-345122</v>
+        <v>-567216</v>
       </c>
       <c r="G20" s="9">
-        <v>-567216</v>
+        <v>-874219</v>
       </c>
       <c r="H20" s="9">
-        <v>-874219</v>
+        <v>-578838</v>
       </c>
       <c r="I20" s="9">
-        <v>-578838</v>
+        <v>-1843470</v>
       </c>
       <c r="J20" s="9">
-        <v>-1843470</v>
+        <v>-1682113</v>
       </c>
       <c r="K20" s="9">
-        <v>-1682113</v>
+        <v>-2632183</v>
       </c>
       <c r="L20" s="9">
-        <v>-2632183</v>
+        <v>-2845644</v>
       </c>
       <c r="M20" s="9">
-        <v>-2845644</v>
+        <v>-2259399</v>
       </c>
       <c r="N20" s="9">
-        <v>-2259399</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3564885</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>333966</v>
+        <v>350178</v>
       </c>
       <c r="F21" s="13">
-        <v>350178</v>
+        <v>759087</v>
       </c>
       <c r="G21" s="13">
-        <v>759087</v>
+        <v>914521</v>
       </c>
       <c r="H21" s="13">
-        <v>914521</v>
+        <v>528378</v>
       </c>
       <c r="I21" s="13">
-        <v>528378</v>
+        <v>782347</v>
       </c>
       <c r="J21" s="13">
-        <v>782347</v>
+        <v>2396836</v>
       </c>
       <c r="K21" s="13">
-        <v>2396836</v>
+        <v>1040915</v>
       </c>
       <c r="L21" s="13">
-        <v>1040915</v>
+        <v>1885860</v>
       </c>
       <c r="M21" s="13">
-        <v>1885860</v>
+        <v>2948905</v>
       </c>
       <c r="N21" s="13">
-        <v>2948905</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1305948</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>2938</v>
+        <v>0</v>
       </c>
       <c r="F22" s="9">
         <v>0</v>
@@ -1327,44 +1362,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>336904</v>
+        <v>350178</v>
       </c>
       <c r="F23" s="13">
-        <v>350178</v>
+        <v>759087</v>
       </c>
       <c r="G23" s="13">
-        <v>759087</v>
+        <v>914521</v>
       </c>
       <c r="H23" s="13">
-        <v>914521</v>
+        <v>528378</v>
       </c>
       <c r="I23" s="13">
-        <v>528378</v>
+        <v>782347</v>
       </c>
       <c r="J23" s="13">
-        <v>782347</v>
+        <v>2396836</v>
       </c>
       <c r="K23" s="13">
-        <v>2396836</v>
+        <v>1040915</v>
       </c>
       <c r="L23" s="13">
-        <v>1040915</v>
+        <v>1885860</v>
       </c>
       <c r="M23" s="13">
-        <v>1885860</v>
+        <v>2948905</v>
       </c>
       <c r="N23" s="13">
-        <v>2948905</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1305948</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1379,7 +1414,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1394,7 +1429,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1409,7 +1444,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1446,7 +1481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1461,7 +1496,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1469,38 +1504,38 @@
         <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="9">
         <v>218</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>31</v>
+      <c r="F29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="9">
+        <v>8040</v>
       </c>
       <c r="H29" s="9">
-        <v>8040</v>
+        <v>6000</v>
       </c>
       <c r="I29" s="9">
-        <v>6000</v>
+        <v>1657</v>
       </c>
       <c r="J29" s="9">
-        <v>1657</v>
+        <v>0</v>
       </c>
       <c r="K29" s="9">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="L29" s="9">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="M29" s="9">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="N29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +1574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1550,11 +1585,11 @@
       <c r="E31" s="9">
         <v>0</v>
       </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>31</v>
+      <c r="F31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
       </c>
       <c r="H31" s="9">
         <v>0</v>
@@ -1578,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1617,7 +1652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1626,37 +1661,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>334</v>
-      </c>
-      <c r="F33" s="9">
         <v>562</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>31</v>
+      <c r="F33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="9">
+        <v>396</v>
       </c>
       <c r="H33" s="9">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="I33" s="9">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="J33" s="9">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="L33" s="9">
-        <v>637</v>
+        <v>528</v>
       </c>
       <c r="M33" s="9">
-        <v>528</v>
+        <v>271</v>
       </c>
       <c r="N33" s="9">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1665,37 +1700,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>24</v>
-      </c>
-      <c r="F34" s="11">
         <v>49</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>31</v>
+      <c r="F34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="11">
+        <v>42</v>
       </c>
       <c r="H34" s="11">
-        <v>42</v>
+        <v>919</v>
       </c>
       <c r="I34" s="11">
-        <v>919</v>
+        <v>57</v>
       </c>
       <c r="J34" s="11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K34" s="11">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="L34" s="11">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="M34" s="11">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="N34" s="11">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
@@ -1704,74 +1739,74 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>1954</v>
-      </c>
-      <c r="F35" s="9">
         <v>602</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>31</v>
+      <c r="F35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="9">
+        <v>194</v>
       </c>
       <c r="H35" s="9">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="I35" s="9">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="J35" s="9">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="K35" s="9">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="L35" s="9">
-        <v>889</v>
+        <v>974</v>
       </c>
       <c r="M35" s="9">
-        <v>974</v>
+        <v>117</v>
       </c>
       <c r="N35" s="9">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>2312</v>
+        <v>1431</v>
       </c>
       <c r="F36" s="13">
-        <v>1431</v>
+        <v>0</v>
       </c>
       <c r="G36" s="13">
-        <v>0</v>
+        <v>8672</v>
       </c>
       <c r="H36" s="13">
-        <v>8672</v>
+        <v>6919</v>
       </c>
       <c r="I36" s="13">
-        <v>6919</v>
+        <v>2674</v>
       </c>
       <c r="J36" s="13">
-        <v>2674</v>
+        <v>64</v>
       </c>
       <c r="K36" s="13">
-        <v>64</v>
+        <v>1776</v>
       </c>
       <c r="L36" s="13">
-        <v>1776</v>
+        <v>1874</v>
       </c>
       <c r="M36" s="13">
-        <v>1874</v>
+        <v>501</v>
       </c>
       <c r="N36" s="13">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1786,7 +1821,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1801,7 +1836,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1816,7 +1851,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1868,7 +1903,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>29</v>
       </c>
@@ -1876,38 +1911,38 @@
         <v>30</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>31</v>
+      <c r="E42" s="9">
+        <v>2858</v>
       </c>
       <c r="F42" s="9">
-        <v>2858</v>
+        <v>11530</v>
       </c>
       <c r="G42" s="9">
-        <v>11530</v>
+        <v>0</v>
       </c>
       <c r="H42" s="9">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="I42" s="9">
-        <v>627</v>
+        <v>1883</v>
       </c>
       <c r="J42" s="9">
-        <v>1883</v>
+        <v>3626</v>
       </c>
       <c r="K42" s="9">
-        <v>3626</v>
+        <v>3104</v>
       </c>
       <c r="L42" s="9">
-        <v>3104</v>
+        <v>2508</v>
       </c>
       <c r="M42" s="9">
-        <v>2508</v>
+        <v>4132</v>
       </c>
       <c r="N42" s="9">
-        <v>4132</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
@@ -1915,11 +1950,11 @@
         <v>40</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>31</v>
@@ -1946,7 +1981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>34</v>
       </c>
@@ -1955,37 +1990,37 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>-4056</v>
+        <v>2064</v>
       </c>
       <c r="F44" s="9">
-        <v>2064</v>
+        <v>1850</v>
       </c>
       <c r="G44" s="9">
-        <v>1850</v>
+        <v>1470</v>
       </c>
       <c r="H44" s="9">
-        <v>1470</v>
+        <v>2937</v>
       </c>
       <c r="I44" s="9">
-        <v>2937</v>
+        <v>1099</v>
       </c>
       <c r="J44" s="9">
-        <v>1099</v>
+        <v>2353</v>
       </c>
       <c r="K44" s="9">
-        <v>2353</v>
+        <v>4505</v>
       </c>
       <c r="L44" s="9">
-        <v>4505</v>
+        <v>117</v>
       </c>
       <c r="M44" s="9">
-        <v>117</v>
+        <v>3978</v>
       </c>
       <c r="N44" s="9">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>35</v>
       </c>
@@ -1993,11 +2028,11 @@
         <v>40</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="11">
-        <v>0</v>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>31</v>
@@ -2024,7 +2059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
@@ -2033,37 +2068,37 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>4726</v>
+        <v>2778</v>
       </c>
       <c r="F46" s="9">
-        <v>2778</v>
+        <v>5359</v>
       </c>
       <c r="G46" s="9">
-        <v>5359</v>
+        <v>3636</v>
       </c>
       <c r="H46" s="9">
-        <v>3636</v>
+        <v>4591</v>
       </c>
       <c r="I46" s="9">
-        <v>4591</v>
+        <v>4193</v>
       </c>
       <c r="J46" s="9">
-        <v>4193</v>
+        <v>3529</v>
       </c>
       <c r="K46" s="9">
-        <v>3529</v>
+        <v>1641</v>
       </c>
       <c r="L46" s="9">
-        <v>1641</v>
+        <v>3940</v>
       </c>
       <c r="M46" s="9">
-        <v>3940</v>
+        <v>5314</v>
       </c>
       <c r="N46" s="9">
-        <v>5314</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>37</v>
       </c>
@@ -2072,37 +2107,37 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>1636</v>
+        <v>738</v>
       </c>
       <c r="F47" s="11">
-        <v>738</v>
+        <v>3941</v>
       </c>
       <c r="G47" s="11">
-        <v>3941</v>
+        <v>1840</v>
       </c>
       <c r="H47" s="11">
-        <v>1840</v>
+        <v>2724</v>
       </c>
       <c r="I47" s="11">
-        <v>2724</v>
+        <v>1212</v>
       </c>
       <c r="J47" s="11">
-        <v>1212</v>
+        <v>2320</v>
       </c>
       <c r="K47" s="11">
-        <v>2320</v>
+        <v>2154</v>
       </c>
       <c r="L47" s="11">
-        <v>2154</v>
+        <v>1936</v>
       </c>
       <c r="M47" s="11">
-        <v>1936</v>
+        <v>1755</v>
       </c>
       <c r="N47" s="11">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>38</v>
       </c>
@@ -2111,74 +2146,74 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>2916</v>
+        <v>5227</v>
       </c>
       <c r="F48" s="9">
-        <v>5227</v>
+        <v>2478</v>
       </c>
       <c r="G48" s="9">
-        <v>2478</v>
+        <v>4240</v>
       </c>
       <c r="H48" s="9">
-        <v>4240</v>
+        <v>3569</v>
       </c>
       <c r="I48" s="9">
-        <v>3569</v>
+        <v>3015</v>
       </c>
       <c r="J48" s="9">
-        <v>3015</v>
+        <v>4617</v>
       </c>
       <c r="K48" s="9">
-        <v>4617</v>
+        <v>3885</v>
       </c>
       <c r="L48" s="9">
-        <v>3885</v>
+        <v>2741</v>
       </c>
       <c r="M48" s="9">
-        <v>2741</v>
+        <v>4685</v>
       </c>
       <c r="N48" s="9">
-        <v>4685</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>5222</v>
+        <v>13665</v>
       </c>
       <c r="F49" s="13">
-        <v>13665</v>
+        <v>25158</v>
       </c>
       <c r="G49" s="13">
-        <v>25158</v>
+        <v>11186</v>
       </c>
       <c r="H49" s="13">
-        <v>11186</v>
+        <v>14448</v>
       </c>
       <c r="I49" s="13">
-        <v>14448</v>
+        <v>11402</v>
       </c>
       <c r="J49" s="13">
-        <v>11402</v>
+        <v>16445</v>
       </c>
       <c r="K49" s="13">
-        <v>16445</v>
+        <v>15289</v>
       </c>
       <c r="L49" s="13">
-        <v>15289</v>
+        <v>11242</v>
       </c>
       <c r="M49" s="13">
-        <v>11242</v>
+        <v>19864</v>
       </c>
       <c r="N49" s="13">
-        <v>19864</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17586</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2193,7 +2228,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2208,7 +2243,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2223,7 +2258,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>41</v>
       </c>
@@ -2260,7 +2295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2275,7 +2310,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>29</v>
       </c>
@@ -2283,38 +2318,38 @@
         <v>30</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>31</v>
+      <c r="E55" s="9">
+        <v>2465</v>
       </c>
       <c r="F55" s="9">
-        <v>2465</v>
+        <v>4100</v>
       </c>
       <c r="G55" s="9">
-        <v>4100</v>
+        <v>2040</v>
       </c>
       <c r="H55" s="9">
-        <v>2040</v>
+        <v>4970</v>
       </c>
       <c r="I55" s="9">
-        <v>4970</v>
+        <v>3540</v>
       </c>
       <c r="J55" s="9">
-        <v>3540</v>
+        <v>3466</v>
       </c>
       <c r="K55" s="9">
-        <v>3466</v>
+        <v>3025</v>
       </c>
       <c r="L55" s="9">
-        <v>3025</v>
+        <v>2747</v>
       </c>
       <c r="M55" s="9">
-        <v>2747</v>
+        <v>3796</v>
       </c>
       <c r="N55" s="9">
-        <v>3796</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2322,11 +2357,11 @@
         <v>40</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="11">
-        <v>0</v>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>31</v>
@@ -2353,7 +2388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>34</v>
       </c>
@@ -2362,37 +2397,37 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>-4056</v>
+        <v>2064</v>
       </c>
       <c r="F57" s="9">
-        <v>2064</v>
+        <v>1850</v>
       </c>
       <c r="G57" s="9">
-        <v>1850</v>
+        <v>1470</v>
       </c>
       <c r="H57" s="9">
-        <v>1470</v>
+        <v>2937</v>
       </c>
       <c r="I57" s="9">
-        <v>2937</v>
+        <v>1099</v>
       </c>
       <c r="J57" s="9">
-        <v>1099</v>
+        <v>2353</v>
       </c>
       <c r="K57" s="9">
-        <v>2353</v>
+        <v>4505</v>
       </c>
       <c r="L57" s="9">
-        <v>4505</v>
+        <v>117</v>
       </c>
       <c r="M57" s="9">
-        <v>117</v>
+        <v>3978</v>
       </c>
       <c r="N57" s="9">
-        <v>3978</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>35</v>
       </c>
@@ -2400,11 +2435,11 @@
         <v>40</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="11">
-        <v>0</v>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>31</v>
@@ -2431,7 +2466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
@@ -2440,37 +2475,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>4498</v>
+        <v>2905</v>
       </c>
       <c r="F59" s="9">
-        <v>2905</v>
+        <v>5398</v>
       </c>
       <c r="G59" s="9">
-        <v>5398</v>
+        <v>4032</v>
       </c>
       <c r="H59" s="9">
-        <v>4032</v>
+        <v>4059</v>
       </c>
       <c r="I59" s="9">
-        <v>4059</v>
+        <v>4725</v>
       </c>
       <c r="J59" s="9">
-        <v>4725</v>
+        <v>2892</v>
       </c>
       <c r="K59" s="9">
-        <v>2892</v>
+        <v>1750</v>
       </c>
       <c r="L59" s="9">
-        <v>1750</v>
+        <v>4197</v>
       </c>
       <c r="M59" s="9">
-        <v>4197</v>
+        <v>3876</v>
       </c>
       <c r="N59" s="9">
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>37</v>
       </c>
@@ -2479,37 +2514,37 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>1611</v>
+        <v>637</v>
       </c>
       <c r="F60" s="11">
-        <v>637</v>
+        <v>4049</v>
       </c>
       <c r="G60" s="11">
-        <v>4049</v>
+        <v>963</v>
       </c>
       <c r="H60" s="11">
-        <v>963</v>
+        <v>3586</v>
       </c>
       <c r="I60" s="11">
-        <v>3586</v>
+        <v>1205</v>
       </c>
       <c r="J60" s="11">
-        <v>1205</v>
+        <v>2294</v>
       </c>
       <c r="K60" s="11">
-        <v>2294</v>
+        <v>2111</v>
       </c>
       <c r="L60" s="11">
-        <v>2111</v>
+        <v>1956</v>
       </c>
       <c r="M60" s="11">
-        <v>1956</v>
+        <v>1794</v>
       </c>
       <c r="N60" s="11">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>38</v>
       </c>
@@ -2518,74 +2553,74 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>4268</v>
+        <v>4145</v>
       </c>
       <c r="F61" s="9">
-        <v>4145</v>
+        <v>3969</v>
       </c>
       <c r="G61" s="9">
-        <v>3969</v>
+        <v>4434</v>
       </c>
       <c r="H61" s="9">
-        <v>4434</v>
+        <v>3140</v>
       </c>
       <c r="I61" s="9">
-        <v>3140</v>
+        <v>3444</v>
       </c>
       <c r="J61" s="9">
-        <v>3444</v>
+        <v>3728</v>
       </c>
       <c r="K61" s="9">
-        <v>3728</v>
+        <v>3800</v>
       </c>
       <c r="L61" s="9">
-        <v>3800</v>
+        <v>3598</v>
       </c>
       <c r="M61" s="9">
-        <v>3598</v>
+        <v>4513</v>
       </c>
       <c r="N61" s="9">
-        <v>4513</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>6321</v>
+        <v>12216</v>
       </c>
       <c r="F62" s="13">
-        <v>12216</v>
+        <v>19366</v>
       </c>
       <c r="G62" s="13">
-        <v>19366</v>
+        <v>12939</v>
       </c>
       <c r="H62" s="13">
-        <v>12939</v>
+        <v>18692</v>
       </c>
       <c r="I62" s="13">
-        <v>18692</v>
+        <v>14013</v>
       </c>
       <c r="J62" s="13">
-        <v>14013</v>
+        <v>14733</v>
       </c>
       <c r="K62" s="13">
-        <v>14733</v>
+        <v>15191</v>
       </c>
       <c r="L62" s="13">
-        <v>15191</v>
+        <v>12615</v>
       </c>
       <c r="M62" s="13">
-        <v>12615</v>
+        <v>17957</v>
       </c>
       <c r="N62" s="13">
-        <v>17957</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16242</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2600,7 +2635,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2615,7 +2650,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2630,7 +2665,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>42</v>
       </c>
@@ -2667,7 +2702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2682,7 +2717,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -2691,37 +2726,37 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>218</v>
+        <v>611</v>
       </c>
       <c r="F68" s="9">
-        <v>611</v>
+        <v>8041</v>
       </c>
       <c r="G68" s="9">
-        <v>8041</v>
+        <v>6000</v>
       </c>
       <c r="H68" s="9">
-        <v>6000</v>
+        <v>1657</v>
       </c>
       <c r="I68" s="9">
-        <v>1657</v>
+        <v>0</v>
       </c>
       <c r="J68" s="9">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K68" s="9">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="L68" s="9">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="M68" s="9">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="N68" s="9">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
@@ -2729,11 +2764,11 @@
         <v>33</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="11">
-        <v>0</v>
+      <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>31</v>
@@ -2760,7 +2795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>34</v>
       </c>
@@ -2799,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>35</v>
       </c>
@@ -2807,11 +2842,11 @@
         <v>33</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="11">
-        <v>0</v>
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>31</v>
@@ -2838,7 +2873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
@@ -2847,37 +2882,37 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>562</v>
+        <v>435</v>
       </c>
       <c r="F72" s="9">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="G72" s="9">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="H72" s="9">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="I72" s="9">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="J72" s="9">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="K72" s="9">
-        <v>637</v>
+        <v>528</v>
       </c>
       <c r="L72" s="9">
-        <v>528</v>
+        <v>271</v>
       </c>
       <c r="M72" s="9">
-        <v>271</v>
+        <v>1709</v>
       </c>
       <c r="N72" s="9">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>37</v>
       </c>
@@ -2886,37 +2921,37 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="F73" s="11">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="G73" s="11">
-        <v>42</v>
+        <v>919</v>
       </c>
       <c r="H73" s="11">
-        <v>919</v>
+        <v>57</v>
       </c>
       <c r="I73" s="11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J73" s="11">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="K73" s="11">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L73" s="11">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="M73" s="11">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="N73" s="11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>38</v>
       </c>
@@ -2925,74 +2960,74 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>602</v>
+        <v>1684</v>
       </c>
       <c r="F74" s="9">
-        <v>1684</v>
+        <v>193</v>
       </c>
       <c r="G74" s="9">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="H74" s="9">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="I74" s="9">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="J74" s="9">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="K74" s="9">
-        <v>889</v>
+        <v>974</v>
       </c>
       <c r="L74" s="9">
-        <v>974</v>
+        <v>117</v>
       </c>
       <c r="M74" s="9">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="N74" s="9">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>1431</v>
+        <v>2880</v>
       </c>
       <c r="F75" s="13">
-        <v>2880</v>
+        <v>8672</v>
       </c>
       <c r="G75" s="13">
-        <v>8672</v>
+        <v>6919</v>
       </c>
       <c r="H75" s="13">
-        <v>6919</v>
+        <v>2674</v>
       </c>
       <c r="I75" s="13">
-        <v>2674</v>
+        <v>64</v>
       </c>
       <c r="J75" s="13">
-        <v>64</v>
+        <v>1776</v>
       </c>
       <c r="K75" s="13">
-        <v>1776</v>
+        <v>1874</v>
       </c>
       <c r="L75" s="13">
-        <v>1874</v>
+        <v>501</v>
       </c>
       <c r="M75" s="13">
-        <v>501</v>
+        <v>2408</v>
       </c>
       <c r="N75" s="13">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3007,7 +3042,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3022,7 +3057,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3037,7 +3072,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>43</v>
       </c>
@@ -3074,7 +3109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3089,7 +3124,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>29</v>
       </c>
@@ -3097,38 +3132,38 @@
         <v>33</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="9">
+      <c r="E81" s="9">
         <v>12218</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>31</v>
+      <c r="F81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="9">
+        <v>927622</v>
       </c>
       <c r="H81" s="9">
-        <v>927622</v>
+        <v>692215</v>
       </c>
       <c r="I81" s="9">
-        <v>692215</v>
+        <v>186775</v>
       </c>
       <c r="J81" s="9">
-        <v>186775</v>
+        <v>0</v>
       </c>
       <c r="K81" s="9">
-        <v>0</v>
+        <v>17840</v>
       </c>
       <c r="L81" s="9">
-        <v>17840</v>
+        <v>33505</v>
       </c>
       <c r="M81" s="9">
-        <v>33505</v>
+        <v>0</v>
       </c>
       <c r="N81" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
@@ -3167,7 +3202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>34</v>
       </c>
@@ -3178,11 +3213,11 @@
       <c r="E83" s="9">
         <v>0</v>
       </c>
-      <c r="F83" s="9">
-        <v>0</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>31</v>
+      <c r="F83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="9">
+        <v>0</v>
       </c>
       <c r="H83" s="9">
         <v>0</v>
@@ -3206,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>35</v>
       </c>
@@ -3245,7 +3280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>36</v>
       </c>
@@ -3254,37 +3289,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>1319</v>
-      </c>
-      <c r="F85" s="9">
         <v>3254</v>
       </c>
-      <c r="G85" s="9" t="s">
-        <v>31</v>
+      <c r="F85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="9">
+        <v>8478</v>
       </c>
       <c r="H85" s="9">
-        <v>8478</v>
+        <v>0</v>
       </c>
       <c r="I85" s="9">
-        <v>0</v>
+        <v>16039</v>
       </c>
       <c r="J85" s="9">
-        <v>16039</v>
+        <v>0</v>
       </c>
       <c r="K85" s="9">
-        <v>0</v>
+        <v>42072</v>
       </c>
       <c r="L85" s="9">
-        <v>42072</v>
+        <v>33564</v>
       </c>
       <c r="M85" s="9">
-        <v>33564</v>
+        <v>3768</v>
       </c>
       <c r="N85" s="9">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25475</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>37</v>
       </c>
@@ -3293,37 +3328,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>321</v>
-      </c>
-      <c r="F86" s="11">
         <v>1266</v>
       </c>
-      <c r="G86" s="11" t="s">
-        <v>31</v>
+      <c r="F86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" s="11">
+        <v>1399</v>
       </c>
       <c r="H86" s="11">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="I86" s="11">
-        <v>0</v>
+        <v>4094</v>
       </c>
       <c r="J86" s="11">
-        <v>4094</v>
+        <v>4321</v>
       </c>
       <c r="K86" s="11">
-        <v>4321</v>
+        <v>11886</v>
       </c>
       <c r="L86" s="11">
-        <v>11886</v>
+        <v>17648</v>
       </c>
       <c r="M86" s="11">
-        <v>17648</v>
+        <v>25091</v>
       </c>
       <c r="N86" s="11">
-        <v>25091</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13911</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
@@ -3332,74 +3367,74 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>58573</v>
-      </c>
-      <c r="F87" s="9">
         <v>23709</v>
       </c>
-      <c r="G87" s="9" t="s">
-        <v>31</v>
+      <c r="F87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="9">
+        <v>9635</v>
       </c>
       <c r="H87" s="9">
-        <v>9635</v>
+        <v>0</v>
       </c>
       <c r="I87" s="9">
-        <v>0</v>
+        <v>39840</v>
       </c>
       <c r="J87" s="9">
-        <v>39840</v>
+        <v>0</v>
       </c>
       <c r="K87" s="9">
-        <v>0</v>
+        <v>175750</v>
       </c>
       <c r="L87" s="9">
-        <v>175750</v>
+        <v>160263</v>
       </c>
       <c r="M87" s="9">
-        <v>160263</v>
+        <v>17755</v>
       </c>
       <c r="N87" s="9">
-        <v>17755</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46144</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>60213</v>
+        <v>40447</v>
       </c>
       <c r="F88" s="13">
-        <v>40447</v>
+        <v>0</v>
       </c>
       <c r="G88" s="13">
-        <v>0</v>
+        <v>947134</v>
       </c>
       <c r="H88" s="13">
-        <v>947134</v>
+        <v>692215</v>
       </c>
       <c r="I88" s="13">
-        <v>692215</v>
+        <v>246748</v>
       </c>
       <c r="J88" s="13">
-        <v>246748</v>
+        <v>4321</v>
       </c>
       <c r="K88" s="13">
-        <v>4321</v>
+        <v>247548</v>
       </c>
       <c r="L88" s="13">
-        <v>247548</v>
+        <v>244980</v>
       </c>
       <c r="M88" s="13">
-        <v>244980</v>
+        <v>46614</v>
       </c>
       <c r="N88" s="13">
-        <v>46614</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>96480</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3414,7 +3449,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3429,7 +3464,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3444,7 +3479,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3496,7 +3531,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>29</v>
       </c>
@@ -3504,38 +3539,38 @@
         <v>33</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>31</v>
+      <c r="E94" s="9">
+        <v>212886</v>
       </c>
       <c r="F94" s="9">
-        <v>212886</v>
+        <v>1247371</v>
       </c>
       <c r="G94" s="9">
-        <v>1247371</v>
+        <v>0</v>
       </c>
       <c r="H94" s="9">
-        <v>0</v>
+        <v>72339</v>
       </c>
       <c r="I94" s="9">
-        <v>72339</v>
+        <v>181384</v>
       </c>
       <c r="J94" s="9">
-        <v>181384</v>
+        <v>486130</v>
       </c>
       <c r="K94" s="9">
-        <v>486130</v>
+        <v>496640</v>
       </c>
       <c r="L94" s="9">
-        <v>496640</v>
+        <v>386652</v>
       </c>
       <c r="M94" s="9">
-        <v>386652</v>
+        <v>695236</v>
       </c>
       <c r="N94" s="9">
-        <v>695236</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1386092</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
@@ -3543,11 +3578,11 @@
         <v>33</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F95" s="11">
-        <v>0</v>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>31</v>
@@ -3574,7 +3609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>34</v>
       </c>
@@ -3583,37 +3618,37 @@
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>-18945</v>
+        <v>7324</v>
       </c>
       <c r="F96" s="9">
-        <v>7324</v>
+        <v>3462</v>
       </c>
       <c r="G96" s="9">
-        <v>3462</v>
+        <v>1470</v>
       </c>
       <c r="H96" s="9">
-        <v>1470</v>
+        <v>36704</v>
       </c>
       <c r="I96" s="9">
-        <v>36704</v>
+        <v>14102</v>
       </c>
       <c r="J96" s="9">
-        <v>14102</v>
+        <v>14424</v>
       </c>
       <c r="K96" s="9">
-        <v>14424</v>
+        <v>62972</v>
       </c>
       <c r="L96" s="9">
-        <v>62972</v>
+        <v>82393</v>
       </c>
       <c r="M96" s="9">
-        <v>82393</v>
+        <v>56116</v>
       </c>
       <c r="N96" s="9">
-        <v>56116</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111738</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>35</v>
       </c>
@@ -3621,11 +3656,11 @@
         <v>33</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F97" s="11">
-        <v>0</v>
+      <c r="E97" s="11">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>31</v>
@@ -3652,7 +3687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>36</v>
       </c>
@@ -3661,37 +3696,37 @@
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>29126</v>
+        <v>22515</v>
       </c>
       <c r="F98" s="9">
-        <v>22515</v>
+        <v>95788</v>
       </c>
       <c r="G98" s="9">
-        <v>95788</v>
+        <v>107683</v>
       </c>
       <c r="H98" s="9">
-        <v>107683</v>
+        <v>145513</v>
       </c>
       <c r="I98" s="9">
-        <v>145513</v>
+        <v>43246</v>
       </c>
       <c r="J98" s="9">
-        <v>43246</v>
+        <v>318597</v>
       </c>
       <c r="K98" s="9">
-        <v>318597</v>
+        <v>101742</v>
       </c>
       <c r="L98" s="9">
-        <v>101742</v>
+        <v>177088</v>
       </c>
       <c r="M98" s="9">
-        <v>177088</v>
+        <v>67631</v>
       </c>
       <c r="N98" s="9">
-        <v>67631</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74278</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>37</v>
       </c>
@@ -3700,37 +3735,37 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>43357</v>
+        <v>130653</v>
       </c>
       <c r="F99" s="11">
-        <v>130653</v>
+        <v>5366</v>
       </c>
       <c r="G99" s="11">
-        <v>5366</v>
+        <v>99887</v>
       </c>
       <c r="H99" s="11">
-        <v>99887</v>
+        <v>172474</v>
       </c>
       <c r="I99" s="11">
-        <v>172474</v>
+        <v>112552</v>
       </c>
       <c r="J99" s="11">
-        <v>112552</v>
+        <v>278138</v>
       </c>
       <c r="K99" s="11">
-        <v>278138</v>
+        <v>288636</v>
       </c>
       <c r="L99" s="11">
-        <v>288636</v>
+        <v>483652</v>
       </c>
       <c r="M99" s="11">
-        <v>483652</v>
+        <v>338795</v>
       </c>
       <c r="N99" s="11">
-        <v>338795</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>387028</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>38</v>
       </c>
@@ -3739,74 +3774,74 @@
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
-        <v>111236</v>
+        <v>191953</v>
       </c>
       <c r="F100" s="9">
-        <v>191953</v>
+        <v>193534</v>
       </c>
       <c r="G100" s="9">
-        <v>193534</v>
+        <v>233930</v>
       </c>
       <c r="H100" s="9">
-        <v>233930</v>
+        <v>330858</v>
       </c>
       <c r="I100" s="9">
-        <v>330858</v>
+        <v>194102</v>
       </c>
       <c r="J100" s="9">
-        <v>194102</v>
+        <v>1025447</v>
       </c>
       <c r="K100" s="9">
-        <v>1025447</v>
+        <v>615313</v>
       </c>
       <c r="L100" s="9">
-        <v>615313</v>
+        <v>402648</v>
       </c>
       <c r="M100" s="9">
-        <v>402648</v>
+        <v>684345</v>
       </c>
       <c r="N100" s="9">
-        <v>684345</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>489443</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>164774</v>
+        <v>565331</v>
       </c>
       <c r="F101" s="13">
-        <v>565331</v>
+        <v>1545521</v>
       </c>
       <c r="G101" s="13">
-        <v>1545521</v>
+        <v>442970</v>
       </c>
       <c r="H101" s="13">
-        <v>442970</v>
+        <v>757888</v>
       </c>
       <c r="I101" s="13">
-        <v>757888</v>
+        <v>545386</v>
       </c>
       <c r="J101" s="13">
-        <v>545386</v>
+        <v>2122736</v>
       </c>
       <c r="K101" s="13">
-        <v>2122736</v>
+        <v>1565303</v>
       </c>
       <c r="L101" s="13">
-        <v>1565303</v>
+        <v>1532433</v>
       </c>
       <c r="M101" s="13">
-        <v>1532433</v>
+        <v>1842123</v>
       </c>
       <c r="N101" s="13">
-        <v>1842123</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2448579</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3821,7 +3856,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3836,7 +3871,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3851,7 +3886,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>45</v>
       </c>
@@ -3888,7 +3923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3903,7 +3938,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>29</v>
       </c>
@@ -3911,38 +3946,38 @@
         <v>33</v>
       </c>
       <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>31</v>
+      <c r="E107" s="9">
+        <v>191374</v>
       </c>
       <c r="F107" s="9">
-        <v>191374</v>
+        <v>387764</v>
       </c>
       <c r="G107" s="9">
-        <v>387764</v>
+        <v>235407</v>
       </c>
       <c r="H107" s="9">
-        <v>235407</v>
+        <v>543494</v>
       </c>
       <c r="I107" s="9">
-        <v>543494</v>
+        <v>368159</v>
       </c>
       <c r="J107" s="9">
-        <v>368159</v>
+        <v>468289</v>
       </c>
       <c r="K107" s="9">
-        <v>468289</v>
+        <v>480975</v>
       </c>
       <c r="L107" s="9">
-        <v>480975</v>
+        <v>420158</v>
       </c>
       <c r="M107" s="9">
-        <v>420158</v>
+        <v>684285</v>
       </c>
       <c r="N107" s="9">
-        <v>684285</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1314618</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
@@ -3950,11 +3985,11 @@
         <v>33</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F108" s="11">
-        <v>0</v>
+      <c r="E108" s="11">
+        <v>0</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>31</v>
@@ -3981,7 +4016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>34</v>
       </c>
@@ -3990,37 +4025,37 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>-18945</v>
+        <v>7324</v>
       </c>
       <c r="F109" s="9">
-        <v>7324</v>
+        <v>3462</v>
       </c>
       <c r="G109" s="9">
-        <v>3462</v>
+        <v>1470</v>
       </c>
       <c r="H109" s="9">
-        <v>1470</v>
+        <v>36704</v>
       </c>
       <c r="I109" s="9">
-        <v>36704</v>
+        <v>14102</v>
       </c>
       <c r="J109" s="9">
-        <v>14102</v>
+        <v>14424</v>
       </c>
       <c r="K109" s="9">
-        <v>14424</v>
+        <v>62972</v>
       </c>
       <c r="L109" s="9">
-        <v>62972</v>
+        <v>82393</v>
       </c>
       <c r="M109" s="9">
-        <v>82393</v>
+        <v>56116</v>
       </c>
       <c r="N109" s="9">
-        <v>56116</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111738</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>35</v>
       </c>
@@ -4028,11 +4063,11 @@
         <v>33</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F110" s="11">
-        <v>0</v>
+      <c r="E110" s="11">
+        <v>0</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>31</v>
@@ -4059,7 +4094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>36</v>
       </c>
@@ -4068,37 +4103,37 @@
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>27191</v>
+        <v>24444</v>
       </c>
       <c r="F111" s="9">
-        <v>24444</v>
+        <v>87467</v>
       </c>
       <c r="G111" s="9">
-        <v>87467</v>
+        <v>116161</v>
       </c>
       <c r="H111" s="9">
-        <v>116161</v>
+        <v>130642</v>
       </c>
       <c r="I111" s="9">
-        <v>130642</v>
+        <v>59284</v>
       </c>
       <c r="J111" s="9">
-        <v>59284</v>
+        <v>276526</v>
       </c>
       <c r="K111" s="9">
-        <v>276526</v>
+        <v>110250</v>
       </c>
       <c r="L111" s="9">
-        <v>110250</v>
+        <v>206884</v>
       </c>
       <c r="M111" s="9">
-        <v>206884</v>
+        <v>45924</v>
       </c>
       <c r="N111" s="9">
-        <v>45924</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71191</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>37</v>
       </c>
@@ -4107,37 +4142,37 @@
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>42412</v>
+        <v>129441</v>
       </c>
       <c r="F112" s="11">
-        <v>129441</v>
+        <v>6278</v>
       </c>
       <c r="G112" s="11">
-        <v>6278</v>
+        <v>101286</v>
       </c>
       <c r="H112" s="11">
-        <v>101286</v>
+        <v>168547</v>
       </c>
       <c r="I112" s="11">
-        <v>168547</v>
+        <v>112324</v>
       </c>
       <c r="J112" s="11">
-        <v>112324</v>
+        <v>270574</v>
       </c>
       <c r="K112" s="11">
-        <v>270574</v>
+        <v>282874</v>
       </c>
       <c r="L112" s="11">
-        <v>282874</v>
+        <v>476208</v>
       </c>
       <c r="M112" s="11">
-        <v>476208</v>
+        <v>349976</v>
       </c>
       <c r="N112" s="11">
-        <v>349976</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>382249</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>38</v>
       </c>
@@ -4146,74 +4181,74 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>146100</v>
+        <v>166567</v>
       </c>
       <c r="F113" s="9">
-        <v>166567</v>
+        <v>232334</v>
       </c>
       <c r="G113" s="9">
-        <v>232334</v>
+        <v>243565</v>
       </c>
       <c r="H113" s="9">
-        <v>243565</v>
+        <v>291678</v>
       </c>
       <c r="I113" s="9">
-        <v>291678</v>
+        <v>233942</v>
       </c>
       <c r="J113" s="9">
-        <v>233942</v>
+        <v>849698</v>
       </c>
       <c r="K113" s="9">
-        <v>849698</v>
+        <v>630800</v>
       </c>
       <c r="L113" s="9">
-        <v>630800</v>
+        <v>545156</v>
       </c>
       <c r="M113" s="9">
-        <v>545156</v>
+        <v>655956</v>
       </c>
       <c r="N113" s="9">
-        <v>655956</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>283982</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>196758</v>
+        <v>519150</v>
       </c>
       <c r="F114" s="13">
-        <v>519150</v>
+        <v>717305</v>
       </c>
       <c r="G114" s="13">
-        <v>717305</v>
+        <v>697889</v>
       </c>
       <c r="H114" s="13">
-        <v>697889</v>
+        <v>1171065</v>
       </c>
       <c r="I114" s="13">
-        <v>1171065</v>
+        <v>787811</v>
       </c>
       <c r="J114" s="13">
-        <v>787811</v>
+        <v>1879511</v>
       </c>
       <c r="K114" s="13">
-        <v>1879511</v>
+        <v>1567871</v>
       </c>
       <c r="L114" s="13">
-        <v>1567871</v>
+        <v>1730799</v>
       </c>
       <c r="M114" s="13">
-        <v>1730799</v>
+        <v>1792257</v>
       </c>
       <c r="N114" s="13">
-        <v>1792257</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2163778</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4228,7 +4263,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4243,7 +4278,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4258,7 +4293,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>46</v>
       </c>
@@ -4295,7 +4330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4310,7 +4345,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>29</v>
       </c>
@@ -4319,37 +4354,37 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>12218</v>
+        <v>33730</v>
       </c>
       <c r="F120" s="9">
-        <v>33730</v>
+        <v>893337</v>
       </c>
       <c r="G120" s="9">
-        <v>893337</v>
+        <v>692215</v>
       </c>
       <c r="H120" s="9">
-        <v>692215</v>
+        <v>186775</v>
       </c>
       <c r="I120" s="9">
-        <v>186775</v>
+        <v>0</v>
       </c>
       <c r="J120" s="9">
-        <v>0</v>
+        <v>17841</v>
       </c>
       <c r="K120" s="9">
-        <v>17841</v>
+        <v>33505</v>
       </c>
       <c r="L120" s="9">
-        <v>33505</v>
+        <v>0</v>
       </c>
       <c r="M120" s="9">
-        <v>0</v>
+        <v>10950</v>
       </c>
       <c r="N120" s="9">
-        <v>10950</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>82424</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>32</v>
       </c>
@@ -4357,11 +4392,11 @@
         <v>33</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F121" s="11">
-        <v>0</v>
+      <c r="E121" s="11">
+        <v>0</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>31</v>
@@ -4388,7 +4423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>34</v>
       </c>
@@ -4427,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>35</v>
       </c>
@@ -4435,11 +4470,11 @@
         <v>33</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F123" s="11">
-        <v>0</v>
+      <c r="E123" s="11">
+        <v>0</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>31</v>
@@ -4466,7 +4501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
@@ -4475,37 +4510,37 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>3254</v>
+        <v>1325</v>
       </c>
       <c r="F124" s="9">
-        <v>1325</v>
+        <v>9646</v>
       </c>
       <c r="G124" s="9">
-        <v>9646</v>
+        <v>0</v>
       </c>
       <c r="H124" s="9">
-        <v>0</v>
+        <v>16038</v>
       </c>
       <c r="I124" s="9">
-        <v>16038</v>
+        <v>0</v>
       </c>
       <c r="J124" s="9">
-        <v>0</v>
+        <v>42071</v>
       </c>
       <c r="K124" s="9">
-        <v>42071</v>
+        <v>33564</v>
       </c>
       <c r="L124" s="9">
-        <v>33564</v>
+        <v>3768</v>
       </c>
       <c r="M124" s="9">
-        <v>3768</v>
+        <v>25475</v>
       </c>
       <c r="N124" s="9">
-        <v>25475</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28562</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>37</v>
       </c>
@@ -4514,37 +4549,37 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>1266</v>
+        <v>2478</v>
       </c>
       <c r="F125" s="11">
-        <v>2478</v>
+        <v>1566</v>
       </c>
       <c r="G125" s="11">
-        <v>1566</v>
+        <v>0</v>
       </c>
       <c r="H125" s="11">
-        <v>0</v>
+        <v>4094</v>
       </c>
       <c r="I125" s="11">
-        <v>4094</v>
+        <v>4321</v>
       </c>
       <c r="J125" s="11">
-        <v>4321</v>
+        <v>11886</v>
       </c>
       <c r="K125" s="11">
-        <v>11886</v>
+        <v>17648</v>
       </c>
       <c r="L125" s="11">
-        <v>17648</v>
+        <v>25091</v>
       </c>
       <c r="M125" s="11">
-        <v>25091</v>
+        <v>13911</v>
       </c>
       <c r="N125" s="11">
-        <v>13911</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18689</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>38</v>
       </c>
@@ -4553,74 +4588,74 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9">
-        <v>23709</v>
+        <v>49095</v>
       </c>
       <c r="F126" s="9">
-        <v>49095</v>
+        <v>10295</v>
       </c>
       <c r="G126" s="9">
-        <v>10295</v>
+        <v>0</v>
       </c>
       <c r="H126" s="9">
-        <v>0</v>
+        <v>39841</v>
       </c>
       <c r="I126" s="9">
-        <v>39841</v>
+        <v>0</v>
       </c>
       <c r="J126" s="9">
-        <v>0</v>
+        <v>175750</v>
       </c>
       <c r="K126" s="9">
-        <v>175750</v>
+        <v>160263</v>
       </c>
       <c r="L126" s="9">
-        <v>160263</v>
+        <v>17755</v>
       </c>
       <c r="M126" s="9">
-        <v>17755</v>
+        <v>46144</v>
       </c>
       <c r="N126" s="9">
-        <v>46144</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>251605</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>40447</v>
+        <v>86628</v>
       </c>
       <c r="F127" s="13">
-        <v>86628</v>
+        <v>914844</v>
       </c>
       <c r="G127" s="13">
-        <v>914844</v>
+        <v>692215</v>
       </c>
       <c r="H127" s="13">
-        <v>692215</v>
+        <v>246748</v>
       </c>
       <c r="I127" s="13">
-        <v>246748</v>
+        <v>4321</v>
       </c>
       <c r="J127" s="13">
-        <v>4321</v>
+        <v>247548</v>
       </c>
       <c r="K127" s="13">
-        <v>247548</v>
+        <v>244980</v>
       </c>
       <c r="L127" s="13">
-        <v>244980</v>
+        <v>46614</v>
       </c>
       <c r="M127" s="13">
-        <v>46614</v>
+        <v>96480</v>
       </c>
       <c r="N127" s="13">
-        <v>96480</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>381280</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4635,7 +4670,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4650,7 +4685,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4665,7 +4700,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>47</v>
       </c>
@@ -4702,7 +4737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4717,7 +4752,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>29</v>
       </c>
@@ -4731,32 +4766,32 @@
       <c r="F133" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>31</v>
+      <c r="G133" s="9">
+        <v>115375871</v>
       </c>
       <c r="H133" s="9">
-        <v>115375871</v>
+        <v>115369167</v>
       </c>
       <c r="I133" s="9">
-        <v>115369167</v>
-      </c>
-      <c r="J133" s="9">
         <v>112718769</v>
       </c>
-      <c r="K133" s="9" t="s">
-        <v>31</v>
+      <c r="J133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="9">
+        <v>111500000</v>
       </c>
       <c r="L133" s="9">
-        <v>111500000</v>
-      </c>
-      <c r="M133" s="9">
         <v>140188285</v>
       </c>
-      <c r="N133" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M133" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" s="9">
+        <v>32589286</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>36</v>
       </c>
@@ -4765,37 +4800,37 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>3949102</v>
+        <v>5790036</v>
       </c>
       <c r="F134" s="11">
-        <v>5790036</v>
+        <v>3045977</v>
       </c>
       <c r="G134" s="11">
-        <v>3045977</v>
-      </c>
-      <c r="H134" s="11">
         <v>21409091</v>
       </c>
-      <c r="I134" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J134" s="11">
+      <c r="H134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" s="11">
         <v>30203390</v>
       </c>
-      <c r="K134" s="11" t="s">
-        <v>31</v>
+      <c r="J134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="11">
+        <v>66047096</v>
       </c>
       <c r="L134" s="11">
-        <v>66047096</v>
+        <v>63568182</v>
       </c>
       <c r="M134" s="11">
-        <v>63568182</v>
+        <v>13904059</v>
       </c>
       <c r="N134" s="11">
-        <v>13904059</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14906378</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>37</v>
       </c>
@@ -4804,37 +4839,37 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>13375000</v>
+        <v>25836735</v>
       </c>
       <c r="F135" s="9">
-        <v>25836735</v>
+        <v>16520000</v>
       </c>
       <c r="G135" s="9">
-        <v>16520000</v>
-      </c>
-      <c r="H135" s="9">
         <v>33309524</v>
       </c>
-      <c r="I135" s="9" t="s">
-        <v>31</v>
+      <c r="H135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="9">
+        <v>71824561</v>
       </c>
       <c r="J135" s="9">
-        <v>71824561</v>
+        <v>67515625</v>
       </c>
       <c r="K135" s="9">
-        <v>67515625</v>
+        <v>132066667</v>
       </c>
       <c r="L135" s="9">
-        <v>132066667</v>
+        <v>132691729</v>
       </c>
       <c r="M135" s="9">
-        <v>132691729</v>
+        <v>222044248</v>
       </c>
       <c r="N135" s="9">
-        <v>222044248</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>187986486</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>38</v>
       </c>
@@ -4843,37 +4878,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>29975947</v>
+        <v>39383721</v>
       </c>
       <c r="F136" s="11">
-        <v>39383721</v>
+        <v>29153800</v>
       </c>
       <c r="G136" s="11">
-        <v>29153800</v>
-      </c>
-      <c r="H136" s="11">
         <v>49664948</v>
       </c>
-      <c r="I136" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J136" s="11">
+      <c r="H136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="11">
         <v>92869464</v>
       </c>
-      <c r="K136" s="11" t="s">
-        <v>31</v>
+      <c r="J136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="11">
+        <v>197694038</v>
       </c>
       <c r="L136" s="11">
-        <v>197694038</v>
+        <v>164541068</v>
       </c>
       <c r="M136" s="11">
-        <v>164541068</v>
+        <v>151752137</v>
       </c>
       <c r="N136" s="11">
-        <v>151752137</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>159667820</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4888,7 +4923,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4903,7 +4938,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4918,7 +4953,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>49</v>
       </c>
@@ -4955,7 +4990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4970,7 +5005,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>29</v>
       </c>
@@ -4978,38 +5013,38 @@
         <v>48</v>
       </c>
       <c r="D142" s="9"/>
-      <c r="E142" s="9" t="s">
-        <v>31</v>
+      <c r="E142" s="9">
+        <v>74487754</v>
       </c>
       <c r="F142" s="9">
-        <v>74487754</v>
-      </c>
-      <c r="G142" s="9">
         <v>108184822</v>
       </c>
-      <c r="H142" s="9" t="s">
-        <v>31</v>
+      <c r="G142" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="9">
+        <v>115373206</v>
       </c>
       <c r="I142" s="9">
-        <v>115373206</v>
+        <v>96327138</v>
       </c>
       <c r="J142" s="9">
-        <v>96327138</v>
+        <v>134067843</v>
       </c>
       <c r="K142" s="9">
-        <v>134067843</v>
+        <v>160000000</v>
       </c>
       <c r="L142" s="9">
-        <v>160000000</v>
+        <v>154167464</v>
       </c>
       <c r="M142" s="9">
-        <v>154167464</v>
+        <v>168256534</v>
       </c>
       <c r="N142" s="9">
-        <v>168256534</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>261971650</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>34</v>
       </c>
@@ -5018,37 +5053,37 @@
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11">
-        <v>4670858</v>
+        <v>3548450</v>
       </c>
       <c r="F143" s="11">
-        <v>3548450</v>
+        <v>1871351</v>
       </c>
       <c r="G143" s="11">
-        <v>1871351</v>
+        <v>1000000</v>
       </c>
       <c r="H143" s="11">
-        <v>1000000</v>
+        <v>12497106</v>
       </c>
       <c r="I143" s="11">
-        <v>12497106</v>
+        <v>12831665</v>
       </c>
       <c r="J143" s="11">
-        <v>12831665</v>
+        <v>6130047</v>
       </c>
       <c r="K143" s="11">
-        <v>6130047</v>
+        <v>13978246</v>
       </c>
       <c r="L143" s="11">
-        <v>13978246</v>
+        <v>704213675</v>
       </c>
       <c r="M143" s="11">
-        <v>704213675</v>
+        <v>14106586</v>
       </c>
       <c r="N143" s="11">
-        <v>14106586</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19935415</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>36</v>
       </c>
@@ -5057,37 +5092,37 @@
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9">
-        <v>6162928</v>
+        <v>8104752</v>
       </c>
       <c r="F144" s="9">
-        <v>8104752</v>
+        <v>17874230</v>
       </c>
       <c r="G144" s="9">
-        <v>17874230</v>
+        <v>29615787</v>
       </c>
       <c r="H144" s="9">
-        <v>29615787</v>
+        <v>31695273</v>
       </c>
       <c r="I144" s="9">
-        <v>31695273</v>
+        <v>10313856</v>
       </c>
       <c r="J144" s="9">
-        <v>10313856</v>
+        <v>90279683</v>
       </c>
       <c r="K144" s="9">
-        <v>90279683</v>
+        <v>62000000</v>
       </c>
       <c r="L144" s="9">
-        <v>62000000</v>
+        <v>44946193</v>
       </c>
       <c r="M144" s="9">
-        <v>44946193</v>
+        <v>12726948</v>
       </c>
       <c r="N144" s="9">
-        <v>12726948</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>103740223</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>37</v>
       </c>
@@ -5096,37 +5131,37 @@
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="11">
-        <v>26501834</v>
+        <v>177036585</v>
       </c>
       <c r="F145" s="11">
-        <v>177036585</v>
+        <v>1361583</v>
       </c>
       <c r="G145" s="11">
-        <v>1361583</v>
+        <v>54286413</v>
       </c>
       <c r="H145" s="11">
-        <v>54286413</v>
+        <v>63316446</v>
       </c>
       <c r="I145" s="11">
-        <v>63316446</v>
+        <v>92864686</v>
       </c>
       <c r="J145" s="11">
-        <v>92864686</v>
+        <v>119887069</v>
       </c>
       <c r="K145" s="11">
-        <v>119887069</v>
+        <v>134000000</v>
       </c>
       <c r="L145" s="11">
-        <v>134000000</v>
+        <v>249820248</v>
       </c>
       <c r="M145" s="11">
-        <v>249820248</v>
+        <v>193045584</v>
       </c>
       <c r="N145" s="11">
-        <v>193045584</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>214896169</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>38</v>
       </c>
@@ -5135,37 +5170,37 @@
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9">
-        <v>38146776</v>
+        <v>36723359</v>
       </c>
       <c r="F146" s="9">
-        <v>36723359</v>
+        <v>78100888</v>
       </c>
       <c r="G146" s="9">
-        <v>78100888</v>
+        <v>55172170</v>
       </c>
       <c r="H146" s="9">
-        <v>55172170</v>
+        <v>92703278</v>
       </c>
       <c r="I146" s="9">
-        <v>92703278</v>
+        <v>64378773</v>
       </c>
       <c r="J146" s="9">
-        <v>64378773</v>
+        <v>222102447</v>
       </c>
       <c r="K146" s="9">
-        <v>222102447</v>
+        <v>158381725</v>
       </c>
       <c r="L146" s="9">
-        <v>158381725</v>
+        <v>146898212</v>
       </c>
       <c r="M146" s="9">
-        <v>146898212</v>
+        <v>146071505</v>
       </c>
       <c r="N146" s="9">
-        <v>146071505</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117288042</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5180,7 +5215,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5195,7 +5230,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5210,7 +5245,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B150" s="7" t="s">
         <v>50</v>
       </c>
@@ -5247,7 +5282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5262,7 +5297,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>29</v>
       </c>
@@ -5270,38 +5305,38 @@
         <v>48</v>
       </c>
       <c r="D152" s="9"/>
-      <c r="E152" s="9" t="s">
-        <v>31</v>
+      <c r="E152" s="9">
+        <v>77636511</v>
       </c>
       <c r="F152" s="9">
-        <v>77636511</v>
+        <v>94576585</v>
       </c>
       <c r="G152" s="9">
-        <v>94576585</v>
+        <v>115395588</v>
       </c>
       <c r="H152" s="9">
-        <v>115395588</v>
+        <v>109354930</v>
       </c>
       <c r="I152" s="9">
-        <v>109354930</v>
+        <v>103999718</v>
       </c>
       <c r="J152" s="9">
-        <v>103999718</v>
+        <v>135109348</v>
       </c>
       <c r="K152" s="9">
-        <v>135109348</v>
+        <v>159000000</v>
       </c>
       <c r="L152" s="9">
-        <v>159000000</v>
+        <v>152951584</v>
       </c>
       <c r="M152" s="9">
-        <v>152951584</v>
+        <v>180264752</v>
       </c>
       <c r="N152" s="9">
-        <v>180264752</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>248228474</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>34</v>
       </c>
@@ -5310,37 +5345,37 @@
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
-        <v>4670858</v>
+        <v>3548450</v>
       </c>
       <c r="F153" s="11">
-        <v>3548450</v>
+        <v>1871351</v>
       </c>
       <c r="G153" s="11">
-        <v>1871351</v>
+        <v>1000000</v>
       </c>
       <c r="H153" s="11">
-        <v>1000000</v>
+        <v>12497106</v>
       </c>
       <c r="I153" s="11">
-        <v>12497106</v>
+        <v>12831665</v>
       </c>
       <c r="J153" s="11">
-        <v>12831665</v>
+        <v>6130047</v>
       </c>
       <c r="K153" s="11">
-        <v>6130047</v>
+        <v>13978246</v>
       </c>
       <c r="L153" s="11">
-        <v>13978246</v>
+        <v>704213675</v>
       </c>
       <c r="M153" s="11">
-        <v>704213675</v>
+        <v>14106586</v>
       </c>
       <c r="N153" s="11">
-        <v>14106586</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19935415</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>36</v>
       </c>
@@ -5349,37 +5384,37 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
-        <v>6045131</v>
+        <v>8414458</v>
       </c>
       <c r="F154" s="9">
-        <v>8414458</v>
+        <v>16203594</v>
       </c>
       <c r="G154" s="9">
-        <v>16203594</v>
+        <v>28809772</v>
       </c>
       <c r="H154" s="9">
-        <v>28809772</v>
+        <v>32185760</v>
       </c>
       <c r="I154" s="9">
-        <v>32185760</v>
+        <v>12546878</v>
       </c>
       <c r="J154" s="9">
-        <v>12546878</v>
+        <v>95617566</v>
       </c>
       <c r="K154" s="9">
-        <v>95617566</v>
+        <v>63000000</v>
       </c>
       <c r="L154" s="9">
-        <v>63000000</v>
+        <v>49293305</v>
       </c>
       <c r="M154" s="9">
-        <v>49293305</v>
+        <v>11848297</v>
       </c>
       <c r="N154" s="9">
-        <v>11848297</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45635256</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>37</v>
       </c>
@@ -5388,37 +5423,37 @@
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
-        <v>26326505</v>
+        <v>203204082</v>
       </c>
       <c r="F155" s="11">
-        <v>203204082</v>
+        <v>1550506</v>
       </c>
       <c r="G155" s="11">
-        <v>1550506</v>
+        <v>105177570</v>
       </c>
       <c r="H155" s="11">
-        <v>105177570</v>
+        <v>47001394</v>
       </c>
       <c r="I155" s="11">
-        <v>47001394</v>
+        <v>93214938</v>
       </c>
       <c r="J155" s="11">
-        <v>93214938</v>
+        <v>117948561</v>
       </c>
       <c r="K155" s="11">
-        <v>117948561</v>
+        <v>134000000</v>
       </c>
       <c r="L155" s="11">
-        <v>134000000</v>
+        <v>243460123</v>
       </c>
       <c r="M155" s="11">
-        <v>243460123</v>
+        <v>195081382</v>
       </c>
       <c r="N155" s="11">
-        <v>195081382</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>217434016</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>38</v>
       </c>
@@ -5427,37 +5462,37 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>34231490</v>
+        <v>40185042</v>
       </c>
       <c r="F156" s="9">
-        <v>40185042</v>
+        <v>58537163</v>
       </c>
       <c r="G156" s="9">
-        <v>58537163</v>
+        <v>54931213</v>
       </c>
       <c r="H156" s="9">
-        <v>54931213</v>
+        <v>92891083</v>
       </c>
       <c r="I156" s="9">
-        <v>92891083</v>
+        <v>67927410</v>
       </c>
       <c r="J156" s="9">
-        <v>67927410</v>
+        <v>227923283</v>
       </c>
       <c r="K156" s="9">
-        <v>227923283</v>
+        <v>166000000</v>
       </c>
       <c r="L156" s="9">
-        <v>166000000</v>
+        <v>151516398</v>
       </c>
       <c r="M156" s="9">
-        <v>151516398</v>
+        <v>145348105</v>
       </c>
       <c r="N156" s="9">
-        <v>145348105</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>140376668</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5472,7 +5507,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5487,7 +5522,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5502,7 +5537,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
         <v>51</v>
       </c>
@@ -5539,7 +5574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5554,7 +5589,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>29</v>
       </c>
@@ -5562,38 +5597,38 @@
         <v>30</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F162" s="9">
+      <c r="E162" s="9">
         <v>55204583</v>
       </c>
+      <c r="F162" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G162" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H162" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I162" s="9">
+      <c r="H162" s="9">
         <v>112718769</v>
       </c>
-      <c r="J162" s="9" t="s">
-        <v>31</v>
+      <c r="I162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" s="9">
+        <v>111506250</v>
       </c>
       <c r="K162" s="9">
-        <v>111506250</v>
-      </c>
-      <c r="L162" s="9">
         <v>140188285</v>
       </c>
-      <c r="M162" s="9" t="s">
-        <v>31</v>
+      <c r="L162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M162" s="9">
+        <v>32589286</v>
       </c>
       <c r="N162" s="9">
-        <v>32589286</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>249015106</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>36</v>
       </c>
@@ -5601,38 +5636,38 @@
         <v>30</v>
       </c>
       <c r="D163" s="11"/>
-      <c r="E163" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F163" s="11">
+      <c r="E163" s="11">
         <v>3045977</v>
       </c>
+      <c r="F163" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G163" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H163" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I163" s="11">
+      <c r="H163" s="11">
         <v>30203390</v>
       </c>
-      <c r="J163" s="11" t="s">
-        <v>31</v>
+      <c r="I163" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J163" s="11">
+        <v>66045526</v>
       </c>
       <c r="K163" s="11">
-        <v>66045526</v>
+        <v>63568182</v>
       </c>
       <c r="L163" s="11">
-        <v>63568182</v>
+        <v>13904059</v>
       </c>
       <c r="M163" s="11">
-        <v>13904059</v>
+        <v>14906378</v>
       </c>
       <c r="N163" s="11">
-        <v>14906378</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33019653</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>37</v>
       </c>
@@ -5640,38 +5675,38 @@
         <v>30</v>
       </c>
       <c r="D164" s="9"/>
-      <c r="E164" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F164" s="9">
+      <c r="E164" s="9">
         <v>16520000</v>
       </c>
+      <c r="F164" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="G164" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H164" s="9" t="s">
-        <v>31</v>
+      <c r="H164" s="9">
+        <v>71824561</v>
       </c>
       <c r="I164" s="9">
-        <v>71824561</v>
+        <v>67515625</v>
       </c>
       <c r="J164" s="9">
-        <v>67515625</v>
+        <v>132066667</v>
       </c>
       <c r="K164" s="9">
-        <v>132066667</v>
+        <v>132691729</v>
       </c>
       <c r="L164" s="9">
-        <v>132691729</v>
+        <v>222044248</v>
       </c>
       <c r="M164" s="9">
-        <v>222044248</v>
+        <v>187986486</v>
       </c>
       <c r="N164" s="9">
-        <v>187986486</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>159735043</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>38</v>
       </c>
@@ -5679,38 +5714,38 @@
         <v>30</v>
       </c>
       <c r="D165" s="11"/>
-      <c r="E165" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F165" s="11">
+      <c r="E165" s="11">
         <v>29153800</v>
       </c>
+      <c r="F165" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="G165" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H165" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I165" s="11">
+      <c r="H165" s="11">
         <v>92869464</v>
       </c>
-      <c r="J165" s="11" t="s">
-        <v>31</v>
+      <c r="I165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J165" s="11">
+        <v>197694038</v>
       </c>
       <c r="K165" s="11">
-        <v>197694038</v>
+        <v>164541068</v>
       </c>
       <c r="L165" s="11">
-        <v>164541068</v>
+        <v>151752137</v>
       </c>
       <c r="M165" s="11">
-        <v>151752137</v>
+        <v>159667820</v>
       </c>
       <c r="N165" s="11">
-        <v>159667820</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>103159082</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5725,7 +5760,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5740,7 +5775,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5755,7 +5790,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
         <v>52</v>
       </c>
@@ -5792,7 +5827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5807,7 +5842,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>53</v>
       </c>
@@ -5844,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>54</v>
       </c>
@@ -5881,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>55</v>
       </c>
@@ -5918,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>56</v>
       </c>
@@ -5955,155 +5990,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>45552</v>
+        <v>26174</v>
       </c>
       <c r="F175" s="9">
-        <v>26174</v>
+        <v>58464</v>
       </c>
       <c r="G175" s="9">
-        <v>58464</v>
+        <v>179985</v>
       </c>
       <c r="H175" s="9">
-        <v>179985</v>
+        <v>-102270</v>
       </c>
       <c r="I175" s="9">
-        <v>-102270</v>
+        <v>78275</v>
       </c>
       <c r="J175" s="9">
-        <v>78275</v>
+        <v>86468</v>
       </c>
       <c r="K175" s="9">
-        <v>86468</v>
+        <v>69480</v>
       </c>
       <c r="L175" s="9">
-        <v>69480</v>
+        <v>83442</v>
       </c>
       <c r="M175" s="9">
-        <v>83442</v>
+        <v>-1739</v>
       </c>
       <c r="N175" s="9">
-        <v>-1739</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
-        <v>3815</v>
+        <v>12642</v>
       </c>
       <c r="F176" s="11">
-        <v>12642</v>
+        <v>7291</v>
       </c>
       <c r="G176" s="11">
-        <v>7291</v>
+        <v>31435</v>
       </c>
       <c r="H176" s="11">
-        <v>31435</v>
+        <v>8985</v>
       </c>
       <c r="I176" s="11">
-        <v>8985</v>
+        <v>40210</v>
       </c>
       <c r="J176" s="11">
-        <v>40210</v>
+        <v>82465</v>
       </c>
       <c r="K176" s="11">
-        <v>82465</v>
+        <v>59790</v>
       </c>
       <c r="L176" s="11">
-        <v>59790</v>
+        <v>50374</v>
       </c>
       <c r="M176" s="11">
-        <v>50374</v>
+        <v>24701</v>
       </c>
       <c r="N176" s="11">
-        <v>24701</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
-        <v>10818</v>
+        <v>23863</v>
       </c>
       <c r="F177" s="9">
-        <v>23863</v>
+        <v>6799</v>
       </c>
       <c r="G177" s="9">
-        <v>6799</v>
+        <v>31435</v>
       </c>
       <c r="H177" s="9">
-        <v>31435</v>
+        <v>7419</v>
       </c>
       <c r="I177" s="9">
-        <v>7419</v>
+        <v>19427</v>
       </c>
       <c r="J177" s="9">
-        <v>19427</v>
+        <v>8794</v>
       </c>
       <c r="K177" s="9">
-        <v>8794</v>
+        <v>25137</v>
       </c>
       <c r="L177" s="9">
-        <v>25137</v>
+        <v>17662</v>
       </c>
       <c r="M177" s="9">
-        <v>17662</v>
+        <v>2251</v>
       </c>
       <c r="N177" s="9">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16894</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
-        <v>44492</v>
+        <v>55175</v>
       </c>
       <c r="F178" s="11">
-        <v>55175</v>
+        <v>54495</v>
       </c>
       <c r="G178" s="11">
-        <v>54495</v>
+        <v>94012</v>
       </c>
       <c r="H178" s="11">
-        <v>94012</v>
+        <v>32059</v>
       </c>
       <c r="I178" s="11">
-        <v>32059</v>
+        <v>73036</v>
       </c>
       <c r="J178" s="11">
-        <v>73036</v>
+        <v>69522</v>
       </c>
       <c r="K178" s="11">
-        <v>69522</v>
+        <v>106635</v>
       </c>
       <c r="L178" s="11">
-        <v>106635</v>
+        <v>53405</v>
       </c>
       <c r="M178" s="11">
-        <v>53405</v>
+        <v>74910</v>
       </c>
       <c r="N178" s="11">
-        <v>74910</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>78317</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>61</v>
       </c>
@@ -6140,81 +6175,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>8032</v>
+        <v>42163</v>
       </c>
       <c r="F180" s="11">
-        <v>42163</v>
+        <v>32045</v>
       </c>
       <c r="G180" s="11">
-        <v>32045</v>
+        <v>160000</v>
       </c>
       <c r="H180" s="11">
-        <v>160000</v>
+        <v>-50520</v>
       </c>
       <c r="I180" s="11">
-        <v>-50520</v>
+        <v>134165</v>
       </c>
       <c r="J180" s="11">
-        <v>134165</v>
+        <v>99767</v>
       </c>
       <c r="K180" s="11">
-        <v>99767</v>
+        <v>102890</v>
       </c>
       <c r="L180" s="11">
-        <v>102890</v>
+        <v>141175</v>
       </c>
       <c r="M180" s="11">
-        <v>141175</v>
+        <v>406623</v>
       </c>
       <c r="N180" s="11">
-        <v>406623</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247280</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15">
-        <v>112709</v>
+        <v>160017</v>
       </c>
       <c r="F181" s="15">
-        <v>160017</v>
+        <v>159094</v>
       </c>
       <c r="G181" s="15">
-        <v>159094</v>
+        <v>496867</v>
       </c>
       <c r="H181" s="15">
-        <v>496867</v>
+        <v>-104327</v>
       </c>
       <c r="I181" s="15">
-        <v>-104327</v>
+        <v>345113</v>
       </c>
       <c r="J181" s="15">
-        <v>345113</v>
+        <v>347016</v>
       </c>
       <c r="K181" s="15">
-        <v>347016</v>
+        <v>363932</v>
       </c>
       <c r="L181" s="15">
-        <v>363932</v>
+        <v>346058</v>
       </c>
       <c r="M181" s="15">
-        <v>346058</v>
+        <v>506746</v>
       </c>
       <c r="N181" s="15">
-        <v>506746</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>452446</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -6229,7 +6264,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="185" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B185" s="7" t="s">
         <v>63</v>
       </c>
@@ -6238,7 +6273,7 @@
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>64</v>
       </c>
@@ -6249,7 +6284,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>66</v>
       </c>
@@ -6260,7 +6295,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>68</v>
       </c>
@@ -6271,7 +6306,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>70</v>
       </c>
@@ -6282,7 +6317,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>72</v>
       </c>
@@ -6293,7 +6328,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>74</v>
       </c>
@@ -6304,7 +6339,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>76</v>
       </c>
